--- a/biology/Botanique/Pascal_Ribéreau-Gayon/Pascal_Ribéreau-Gayon.xlsx
+++ b/biology/Botanique/Pascal_Ribéreau-Gayon/Pascal_Ribéreau-Gayon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pascal_Rib%C3%A9reau-Gayon</t>
+          <t>Pascal_Ribéreau-Gayon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pascal Marie André Ribéreau-Gayon, né le 4 juin 1930 à Bordeaux et mort le 15 mai 2011 dans la même ville, est un universitaire français. Il a été le directeur de l'Institut d'œnologie de l'université Bordeaux-II.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pascal_Rib%C3%A9reau-Gayon</t>
+          <t>Pascal_Ribéreau-Gayon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Son arrière-grand-père, Ulysse Gayon, est assistant de Louis Pasteur ; il s'installe à Bordeaux en 1880 où il met au point la bouillie bordelaise à base de sulfate de cuivre, contre certaines maladies cryptogamiques de la vigne.
-Son père, Jean Ribéreau-Gayon, crée l'Institut d'œnologie de Bordeaux en 1949, et découvre notamment le processus de la fermentation malolactique avec Émile Peynaud en 1949[1].
-Travaux
-Pascal Ribéreau-Gayon fait entrer dans les chais la chromatographie sur papier, qui permet de mesurer l'avancement de la fermentation malolactique ; elle est maîtrisée entre 1963 et 1972[2].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son arrière-grand-père, Ulysse Gayon, est assistant de Louis Pasteur ; il s'installe à Bordeaux en 1880 où il met au point la bouillie bordelaise à base de sulfate de cuivre, contre certaines maladies cryptogamiques de la vigne.
+Son père, Jean Ribéreau-Gayon, crée l'Institut d'œnologie de Bordeaux en 1949, et découvre notamment le processus de la fermentation malolactique avec Émile Peynaud en 1949.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pascal_Rib%C3%A9reau-Gayon</t>
+          <t>Pascal_Ribéreau-Gayon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +558,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pascal Ribéreau-Gayon fait entrer dans les chais la chromatographie sur papier, qui permet de mesurer l'avancement de la fermentation malolactique ; elle est maîtrisée entre 1963 et 1972.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pascal_Ribéreau-Gayon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascal_Rib%C3%A9reau-Gayon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il est l'auteur du Traité d'Œnologie, référence bibliographique dans le monde du vin[3],[4],[5]. Cet ouvrage est actualisé régulièrement avec les diverses avancées et thèses réalisées en œnologie ; en 2017 paraît la 7e édition, en deux volumes : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il est l'auteur du Traité d'Œnologie, référence bibliographique dans le monde du vin. Cet ouvrage est actualisé régulièrement avec les diverses avancées et thèses réalisées en œnologie ; en 2017 paraît la 7e édition, en deux volumes : 
 Tome 1, Microbiologie du vin, Vinifications
 Tome 2, Chimie du vin, Stabilisation et traitements
 Il a aussi dirigé des ouvrages de vulgarisation sur les vins de France :
